--- a/data/trans_orig/P1423-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4658</v>
+        <v>4773</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001926361452030589</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009428097064044787</v>
+        <v>0.009660048356995597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>11818</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6411</v>
+        <v>6416</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20122</v>
+        <v>19143</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0252796321193012</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01371378669213252</v>
+        <v>0.01372506503567357</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04304293494804141</v>
+        <v>0.04094935830692228</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -786,19 +786,19 @@
         <v>12770</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7154</v>
+        <v>7169</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21770</v>
+        <v>21287</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01328028553343878</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007439732237030303</v>
+        <v>0.007455607795749102</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02264051075893369</v>
+        <v>0.02213763969524491</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>493112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489406</v>
+        <v>489291</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -824,7 +824,7 @@
         <v>0.9980736385479694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9905719029359568</v>
+        <v>0.9903399516430044</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>455671</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>447367</v>
+        <v>448346</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>461078</v>
+        <v>461073</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9747203678806988</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9569570650519587</v>
+        <v>0.9590506416930777</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9862862133078676</v>
+        <v>0.9862749349643265</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>975</v>
@@ -857,19 +857,19 @@
         <v>948783</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>939783</v>
+        <v>940266</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>954399</v>
+        <v>954384</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9867197144665613</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9773594892410662</v>
+        <v>0.9778623603047552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9925602677629697</v>
+        <v>0.9925443922042509</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>14121</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8303</v>
+        <v>8021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22838</v>
+        <v>22782</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01919922901983773</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01128912780528708</v>
+        <v>0.01090615559148348</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03105191945086798</v>
+        <v>0.03097492256398359</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -982,19 +982,19 @@
         <v>22101</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14166</v>
+        <v>14742</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33431</v>
+        <v>32712</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03533349954614367</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0226484574708844</v>
+        <v>0.02356806048570623</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05344717387849413</v>
+        <v>0.05229776259919683</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -1003,19 +1003,19 @@
         <v>36222</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25710</v>
+        <v>25912</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49532</v>
+        <v>48713</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02661437727833527</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01889095942335023</v>
+        <v>0.01903935285312045</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03639432539299137</v>
+        <v>0.03579238487319745</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>721368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>712651</v>
+        <v>712707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>727186</v>
+        <v>727468</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9808007709801623</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.968948080549132</v>
+        <v>0.9690250774360164</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9887108721947129</v>
+        <v>0.9890938444085164</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>570</v>
@@ -1053,19 +1053,19 @@
         <v>603393</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>592063</v>
+        <v>592782</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>611328</v>
+        <v>610752</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9646665004538564</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9465528261215062</v>
+        <v>0.9477022374008034</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9773515425291156</v>
+        <v>0.976431939514294</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1258</v>
@@ -1074,19 +1074,19 @@
         <v>1324760</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1311450</v>
+        <v>1312269</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1335272</v>
+        <v>1335070</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9733856227216647</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9636056746070086</v>
+        <v>0.9642076151268025</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9811090405766497</v>
+        <v>0.9809606471468796</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>19035</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10853</v>
+        <v>11689</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29085</v>
+        <v>30713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02980489301999613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01699288294865816</v>
+        <v>0.01830255201158138</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04553980745105192</v>
+        <v>0.04808839684408083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1199,19 +1199,19 @@
         <v>40193</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28564</v>
+        <v>28179</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53049</v>
+        <v>55486</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05827182288476238</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04141255261428407</v>
+        <v>0.0408536158507765</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07691099172497012</v>
+        <v>0.08044428161287284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1220,19 +1220,19 @@
         <v>59228</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45905</v>
+        <v>44869</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75869</v>
+        <v>76234</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04458562649346465</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03455643441735491</v>
+        <v>0.03377652231061792</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0571125866159769</v>
+        <v>0.05738748715975822</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>619633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>609583</v>
+        <v>607955</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>627815</v>
+        <v>626979</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9701951069800039</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9544601925489481</v>
+        <v>0.9519116031559193</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9830071170513419</v>
+        <v>0.9816974479884186</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>620</v>
@@ -1270,19 +1270,19 @@
         <v>649551</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>636695</v>
+        <v>634258</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>661180</v>
+        <v>661565</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9417281771152376</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9230890082750297</v>
+        <v>0.919555718387127</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9585874473857159</v>
+        <v>0.9591463841492233</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1215</v>
@@ -1291,19 +1291,19 @@
         <v>1269184</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1252543</v>
+        <v>1252178</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1282507</v>
+        <v>1283543</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9554143735065354</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9428874133840229</v>
+        <v>0.9426125128402415</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.965443565582645</v>
+        <v>0.9662234776893821</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>15592</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8870</v>
+        <v>8869</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25224</v>
+        <v>24975</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03003335791296228</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01708502215420512</v>
+        <v>0.01708365352773458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04858753561384485</v>
+        <v>0.04810767818832043</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -1416,19 +1416,19 @@
         <v>57790</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44500</v>
+        <v>44492</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72694</v>
+        <v>71979</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1120740867732523</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08629949437045996</v>
+        <v>0.08628392988281934</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1409776037381524</v>
+        <v>0.1395919988065843</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -1437,19 +1437,19 @@
         <v>73382</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57220</v>
+        <v>58749</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90203</v>
+        <v>90690</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07091477755581192</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05529656466629629</v>
+        <v>0.05677360480727062</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08717088913967022</v>
+        <v>0.08764148122984683</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>503555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493923</v>
+        <v>494172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>510277</v>
+        <v>510278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9699666420870378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9514124643861551</v>
+        <v>0.9518923218116796</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9829149778457948</v>
+        <v>0.9829163464722654</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>446</v>
@@ -1487,19 +1487,19 @@
         <v>457852</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>442948</v>
+        <v>443663</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>471142</v>
+        <v>471150</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8879259132267477</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8590223962618477</v>
+        <v>0.8604080011934158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9137005056295401</v>
+        <v>0.9137160701171807</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>915</v>
@@ -1508,19 +1508,19 @@
         <v>961407</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>944586</v>
+        <v>944099</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>977569</v>
+        <v>976040</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9290852224441881</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9128291108603298</v>
+        <v>0.9123585187701533</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9447034353337038</v>
+        <v>0.9432263951927294</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>21672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13828</v>
+        <v>13795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31731</v>
+        <v>31120</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05604185928092983</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03575810325857368</v>
+        <v>0.03567346954091009</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08205364150408305</v>
+        <v>0.0804725085324625</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -1633,19 +1633,19 @@
         <v>52077</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37885</v>
+        <v>40297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66680</v>
+        <v>67927</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1289078327199188</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09377760854772565</v>
+        <v>0.09974917410638183</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1650548401217497</v>
+        <v>0.1681429832888107</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -1654,19 +1654,19 @@
         <v>73749</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58845</v>
+        <v>59462</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>90675</v>
+        <v>91043</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09327087155246694</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07442169362503875</v>
+        <v>0.07520158713314476</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1146768838851368</v>
+        <v>0.1151427070128103</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>365038</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>354979</v>
+        <v>355590</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>372882</v>
+        <v>372915</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9439581407190701</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.917946358495917</v>
+        <v>0.9195274914675378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9642418967414264</v>
+        <v>0.96432653045909</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>346</v>
@@ -1704,19 +1704,19 @@
         <v>351909</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>337306</v>
+        <v>336059</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>366101</v>
+        <v>363689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8710921672800812</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8349451598782504</v>
+        <v>0.8318570167111894</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9062223914522742</v>
+        <v>0.9002508258936182</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>715</v>
@@ -1725,19 +1725,19 @@
         <v>716947</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>700021</v>
+        <v>699653</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>731851</v>
+        <v>731234</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9067291284475331</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8853231161148629</v>
+        <v>0.8848572929871892</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9255783063749612</v>
+        <v>0.9247984128668552</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>15257</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9459</v>
+        <v>8750</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23137</v>
+        <v>23082</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0521458402303617</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03232935713906984</v>
+        <v>0.02990485201665264</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07907839309153587</v>
+        <v>0.07889038169027603</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1850,19 +1850,19 @@
         <v>40645</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29752</v>
+        <v>30211</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53862</v>
+        <v>53175</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1185210122828796</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08675777563025767</v>
+        <v>0.08809555133451624</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.157060871248837</v>
+        <v>0.1550581605685694</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -1871,19 +1871,19 @@
         <v>55902</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43300</v>
+        <v>43866</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70750</v>
+        <v>71430</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08796282579448825</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06813285772643157</v>
+        <v>0.06902365252316837</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1113262111413243</v>
+        <v>0.1123968961630916</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>277326</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>269446</v>
+        <v>269501</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>283124</v>
+        <v>283833</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9478541597696383</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9209216069084643</v>
+        <v>0.9211096183097247</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9676706428609311</v>
+        <v>0.9700951479833476</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>328</v>
@@ -1921,19 +1921,19 @@
         <v>302289</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>289072</v>
+        <v>289759</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>313182</v>
+        <v>312723</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8814789877171204</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8429391287511631</v>
+        <v>0.8449418394314308</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9132422243697425</v>
+        <v>0.9119044486654839</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>614</v>
@@ -1942,19 +1942,19 @@
         <v>579615</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>564767</v>
+        <v>564087</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>592217</v>
+        <v>591651</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9120371742055118</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8886737888586761</v>
+        <v>0.8876031038369087</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9318671422735685</v>
+        <v>0.930976347476832</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>14745</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8449</v>
+        <v>8377</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22581</v>
+        <v>23062</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07025414115601746</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04025689504666925</v>
+        <v>0.03991274430206146</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.10758697332458</v>
+        <v>0.1098809485823723</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -2067,19 +2067,19 @@
         <v>32498</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21957</v>
+        <v>22038</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45206</v>
+        <v>45884</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.097327204741812</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06575874176299289</v>
+        <v>0.06600092315204534</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1353832272838852</v>
+        <v>0.1374152497804399</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -2088,19 +2088,19 @@
         <v>47243</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34021</v>
+        <v>34867</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62126</v>
+        <v>63509</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08687801378855955</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06256349056834656</v>
+        <v>0.06411793098316498</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1142465550968472</v>
+        <v>0.1167887036753886</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>195138</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>187302</v>
+        <v>186821</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>201434</v>
+        <v>201506</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9297458588439825</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8924130266754201</v>
+        <v>0.8901190514176278</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9597431049533307</v>
+        <v>0.9600872556979385</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>262</v>
@@ -2138,19 +2138,19 @@
         <v>301410</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>288702</v>
+        <v>288024</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>311951</v>
+        <v>311870</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.902672795258188</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8646167727161148</v>
+        <v>0.86258475021956</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9342412582370071</v>
+        <v>0.9339990768479547</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>467</v>
@@ -2159,19 +2159,19 @@
         <v>496548</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>481665</v>
+        <v>480282</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>509770</v>
+        <v>508924</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9131219862114405</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.885753444903153</v>
+        <v>0.8832112963246114</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9374365094316536</v>
+        <v>0.9358820690168351</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>101374</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>83286</v>
+        <v>82770</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120883</v>
+        <v>123551</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0309392511740386</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02541883440745864</v>
+        <v>0.02526144435520953</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03689358837622989</v>
+        <v>0.03770762250023565</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>248</v>
@@ -2284,19 +2284,19 @@
         <v>257122</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>225895</v>
+        <v>226724</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>288825</v>
+        <v>291879</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07608960321522913</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06684867282896477</v>
+        <v>0.06709415924874697</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0854714691691327</v>
+        <v>0.08637525400442105</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>352</v>
@@ -2305,19 +2305,19 @@
         <v>358496</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>321106</v>
+        <v>321667</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>396371</v>
+        <v>394230</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0538626126121917</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04824503621807337</v>
+        <v>0.04832922847621215</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05955317873674727</v>
+        <v>0.05923153005602007</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3175169</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3155660</v>
+        <v>3152992</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3193257</v>
+        <v>3193773</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9690607488259614</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9631064116237695</v>
+        <v>0.9622923774997643</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9745811655925414</v>
+        <v>0.9747385556447903</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3049</v>
@@ -2355,19 +2355,19 @@
         <v>3122075</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3090372</v>
+        <v>3087318</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3153302</v>
+        <v>3152473</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9239103967847708</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.914528530830867</v>
+        <v>0.9136247459955792</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9331513271710346</v>
+        <v>0.932905840751253</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6159</v>
@@ -2376,19 +2376,19 @@
         <v>6297245</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6259370</v>
+        <v>6261511</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6334635</v>
+        <v>6334074</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9461373873878083</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.940446821263253</v>
+        <v>0.9407684699439801</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9517549637819267</v>
+        <v>0.9516707715237879</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>3699</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1035</v>
+        <v>897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9089</v>
+        <v>8893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008145874140127175</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002279768693391854</v>
+        <v>0.001975143605250862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02001419018843436</v>
+        <v>0.01958243794039249</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2744,19 +2744,19 @@
         <v>6633</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2782</v>
+        <v>2684</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14805</v>
+        <v>13788</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01541784160984266</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006466874348566596</v>
+        <v>0.006238110945244181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03441171430328051</v>
+        <v>0.03204688090222527</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2765,19 +2765,19 @@
         <v>10333</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5455</v>
+        <v>5017</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19852</v>
+        <v>19373</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01168352927121073</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006168457421773821</v>
+        <v>0.00567347006249075</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02244721113380749</v>
+        <v>0.02190607509596368</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>450447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>445057</v>
+        <v>445253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453111</v>
+        <v>453249</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9918541258598729</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9799858098115656</v>
+        <v>0.9804175620596075</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9977202313066081</v>
+        <v>0.9980248563947491</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>415</v>
@@ -2815,19 +2815,19 @@
         <v>423597</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>415425</v>
+        <v>416442</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>427448</v>
+        <v>427546</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9845821583901574</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9655882856967194</v>
+        <v>0.9679531190977747</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9935331256514335</v>
+        <v>0.9937618890547558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>857</v>
@@ -2836,19 +2836,19 @@
         <v>874043</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>864524</v>
+        <v>865003</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>878921</v>
+        <v>879359</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9883164707287893</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9775527888661925</v>
+        <v>0.9780939249040363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9938315425782261</v>
+        <v>0.9943265299375093</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>20902</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12638</v>
+        <v>12849</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34088</v>
+        <v>32891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03042091004399188</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01839375523148347</v>
+        <v>0.01870109514370716</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04961268779718071</v>
+        <v>0.04787007410203977</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -2961,19 +2961,19 @@
         <v>26779</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18033</v>
+        <v>17485</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39455</v>
+        <v>39035</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04388200145219153</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02954991614377288</v>
+        <v>0.0286518763597225</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06465253929707178</v>
+        <v>0.06396467318121696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -2982,19 +2982,19 @@
         <v>47681</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35623</v>
+        <v>36205</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65608</v>
+        <v>65220</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03675285720886941</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02745871709683174</v>
+        <v>0.02790702023017319</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05057106574305521</v>
+        <v>0.0502718981175258</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>666185</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>652999</v>
+        <v>654196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>674449</v>
+        <v>674238</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9695790899560082</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9503873122028192</v>
+        <v>0.9521299258979602</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9816062447685164</v>
+        <v>0.9812989048562928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>546</v>
@@ -3032,19 +3032,19 @@
         <v>583476</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>570800</v>
+        <v>571220</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>592222</v>
+        <v>592770</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9561179985478084</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9353474607029281</v>
+        <v>0.9360353268187829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9704500838562271</v>
+        <v>0.9713481236402774</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1194</v>
@@ -3053,19 +3053,19 @@
         <v>1249661</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1231734</v>
+        <v>1232122</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1261719</v>
+        <v>1261137</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9632471427911306</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9494289342569447</v>
+        <v>0.9497281018824741</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9725412829031682</v>
+        <v>0.9720929797698268</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>26222</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16829</v>
+        <v>15890</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38705</v>
+        <v>39089</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03845650233224136</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02468059349207724</v>
+        <v>0.0233032966306248</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05676421156260443</v>
+        <v>0.05732657577877212</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -3178,19 +3178,19 @@
         <v>69373</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54972</v>
+        <v>54460</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87592</v>
+        <v>85873</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09776665342282631</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07747159819210904</v>
+        <v>0.07674992561168988</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1234424878720843</v>
+        <v>0.121020955217628</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -3199,19 +3199,19 @@
         <v>95595</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77809</v>
+        <v>77390</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117581</v>
+        <v>117257</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06870218282478645</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05592016710535296</v>
+        <v>0.05561868140179412</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08450294492240479</v>
+        <v>0.08427029708772826</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>655641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>643158</v>
+        <v>642774</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>665034</v>
+        <v>665973</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9615434976677586</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9432357884373955</v>
+        <v>0.9426734242212279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9753194065079228</v>
+        <v>0.9766967033693752</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>600</v>
@@ -3249,19 +3249,19 @@
         <v>640201</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>621982</v>
+        <v>623701</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>654602</v>
+        <v>655114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9022333465771737</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8765575121279158</v>
+        <v>0.8789790447823718</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.922528401807891</v>
+        <v>0.9232500743883101</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1228</v>
@@ -3270,19 +3270,19 @@
         <v>1295842</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1273856</v>
+        <v>1274180</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1313628</v>
+        <v>1314047</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9312978171752135</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9154970550775952</v>
+        <v>0.9157297029122717</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9440798328946475</v>
+        <v>0.944381318598206</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>27355</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18856</v>
+        <v>18076</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40158</v>
+        <v>40777</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0445075605671329</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03067972275217854</v>
+        <v>0.02941021799554063</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06533825865375076</v>
+        <v>0.06634577335785705</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -3395,19 +3395,19 @@
         <v>76887</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59810</v>
+        <v>60429</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92599</v>
+        <v>95349</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1251686574240544</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.097368629370804</v>
+        <v>0.09837600212499803</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.150748269726186</v>
+        <v>0.1552251604687261</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -3416,19 +3416,19 @@
         <v>104242</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85929</v>
+        <v>86489</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124573</v>
+        <v>125841</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08482652954709136</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06992497313173622</v>
+        <v>0.07038070349808384</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1013709786263006</v>
+        <v>0.1024033313925912</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>587262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>574459</v>
+        <v>573840</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>595761</v>
+        <v>596541</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9554924394328671</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9346617413462492</v>
+        <v>0.9336542266421427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9693202772478214</v>
+        <v>0.9705897820044593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>467</v>
@@ -3466,19 +3466,19 @@
         <v>537377</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>521665</v>
+        <v>518915</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>554454</v>
+        <v>553835</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8748313425759456</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.849251730273814</v>
+        <v>0.8447748395312739</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.902631370629196</v>
+        <v>0.9016239978750018</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>990</v>
@@ -3487,19 +3487,19 @@
         <v>1124638</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1104307</v>
+        <v>1103039</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1142951</v>
+        <v>1142391</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9151734704529086</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8986290213736994</v>
+        <v>0.8975966686074087</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9300750268682637</v>
+        <v>0.9296192965019161</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>30885</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21441</v>
+        <v>20750</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43272</v>
+        <v>43530</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07192014562325552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04992982201903205</v>
+        <v>0.04832063760917723</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1007675167187232</v>
+        <v>0.1013675246290374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -3612,19 +3612,19 @@
         <v>82609</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66190</v>
+        <v>66498</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99550</v>
+        <v>98294</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1844770693155389</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1478118548714914</v>
+        <v>0.1485000658563439</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2223090334571405</v>
+        <v>0.2195053518729346</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -3633,19 +3633,19 @@
         <v>113493</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95145</v>
+        <v>95258</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>134759</v>
+        <v>135429</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1293771850497274</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1084613371138181</v>
+        <v>0.1085901883206266</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1536183869592913</v>
+        <v>0.1543824118097526</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>398544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>386157</v>
+        <v>385899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>407988</v>
+        <v>408679</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9280798543767445</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.899232483281277</v>
+        <v>0.898632475370963</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9500701779809679</v>
+        <v>0.951679362390823</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>327</v>
@@ -3683,19 +3683,19 @@
         <v>365191</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>348250</v>
+        <v>349506</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>381610</v>
+        <v>381302</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.815522930684461</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7776909665428596</v>
+        <v>0.7804946481270648</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8521881451285088</v>
+        <v>0.8514999341436559</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>691</v>
@@ -3704,19 +3704,19 @@
         <v>763736</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>742470</v>
+        <v>741800</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>782084</v>
+        <v>781971</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8706228149502726</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8463816130407086</v>
+        <v>0.845617588190247</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8915386628861813</v>
+        <v>0.8914098116793733</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>16529</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9194</v>
+        <v>9044</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26015</v>
+        <v>27795</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05335704286705963</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02967761118207295</v>
+        <v>0.02919527397886215</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08397772331050146</v>
+        <v>0.08972189660667591</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -3829,19 +3829,19 @@
         <v>69374</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54534</v>
+        <v>54803</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84965</v>
+        <v>85413</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1959749971778982</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.154051221671972</v>
+        <v>0.1548136542943506</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2400167511229602</v>
+        <v>0.2412817334626303</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>83</v>
@@ -3850,19 +3850,19 @@
         <v>85904</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69583</v>
+        <v>68634</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106843</v>
+        <v>105472</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1294154046311637</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.104828693681755</v>
+        <v>0.1033987113637284</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.160961014566867</v>
+        <v>0.1588953449551502</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>293257</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>283771</v>
+        <v>281991</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>300592</v>
+        <v>300742</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9466429571329403</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9160222766894985</v>
+        <v>0.9102781033933242</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9703223888179271</v>
+        <v>0.9708047260211379</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>275</v>
@@ -3900,19 +3900,19 @@
         <v>284622</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269031</v>
+        <v>268583</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>299462</v>
+        <v>299193</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8040250028221018</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7599832488770397</v>
+        <v>0.7587182665373698</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8459487783280278</v>
+        <v>0.8451863457056493</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>543</v>
@@ -3921,19 +3921,19 @@
         <v>577878</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>556939</v>
+        <v>558310</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>594199</v>
+        <v>595148</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8705845953688363</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.839038985433133</v>
+        <v>0.8411046550448499</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.895171306318245</v>
+        <v>0.8966012886362718</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>17088</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9773</v>
+        <v>9857</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28961</v>
+        <v>29780</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06839229855086411</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03911643983011891</v>
+        <v>0.03945109954448409</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1159142072039965</v>
+        <v>0.1191929300364863</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -4046,19 +4046,19 @@
         <v>73948</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59592</v>
+        <v>59278</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90936</v>
+        <v>90566</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1901090637940394</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.153201215960061</v>
+        <v>0.1523932995034817</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2337814262298933</v>
+        <v>0.232830705487396</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>80</v>
@@ -4067,19 +4067,19 @@
         <v>91036</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72966</v>
+        <v>73441</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>111363</v>
+        <v>110748</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1425047797692348</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1142182168763586</v>
+        <v>0.1149622579021401</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1743239734165759</v>
+        <v>0.1733610069366771</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>232763</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>220890</v>
+        <v>220071</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>240078</v>
+        <v>239994</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9316077014491358</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8840857927960036</v>
+        <v>0.8808070699635137</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9608835601698814</v>
+        <v>0.9605489004555161</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>284</v>
@@ -4117,19 +4117,19 @@
         <v>315031</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>298043</v>
+        <v>298413</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>329387</v>
+        <v>329701</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8098909362059605</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7662185737701075</v>
+        <v>0.7671692945126038</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8467987840399392</v>
+        <v>0.8476067004965183</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>492</v>
@@ -4138,19 +4138,19 @@
         <v>547794</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>527467</v>
+        <v>528082</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>565864</v>
+        <v>565389</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8574952202307652</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8256760265834242</v>
+        <v>0.8266389930633229</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8857817831236414</v>
+        <v>0.8850377420978599</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>142680</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>119879</v>
+        <v>119740</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>170209</v>
+        <v>171737</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04163680623244728</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03498303961878504</v>
+        <v>0.0349425746676977</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04967038407956309</v>
+        <v>0.05011630025005198</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>382</v>
@@ -4263,19 +4263,19 @@
         <v>405603</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>369157</v>
+        <v>366961</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>446857</v>
+        <v>444689</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1140906099590445</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1038388704560248</v>
+        <v>0.1032210723958697</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1256947527940435</v>
+        <v>0.1250849597637257</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>510</v>
@@ -4284,19 +4284,19 @@
         <v>548283</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>503280</v>
+        <v>503099</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>593918</v>
+        <v>595718</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07852952054940991</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07208381372805435</v>
+        <v>0.07205781917207388</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0850656742327586</v>
+        <v>0.08532344135043349</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3284099</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3256570</v>
+        <v>3255042</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3306900</v>
+        <v>3307039</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9583631937675527</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.950329615920437</v>
+        <v>0.9498836997499482</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9650169603812151</v>
+        <v>0.9650574253323024</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2914</v>
@@ -4334,19 +4334,19 @@
         <v>3149495</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3108241</v>
+        <v>3110409</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3185941</v>
+        <v>3188137</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8859093900409555</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8743052472059568</v>
+        <v>0.8749150402362742</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8961611295439753</v>
+        <v>0.8967789276041302</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5995</v>
@@ -4355,19 +4355,19 @@
         <v>6433594</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6387959</v>
+        <v>6386159</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6478597</v>
+        <v>6478778</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9214704794505901</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9149343257672414</v>
+        <v>0.9146765586495664</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9279161862719455</v>
+        <v>0.9279421808279261</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>4392</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1900</v>
+        <v>1058</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12098</v>
+        <v>10086</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01047021015354955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004529004681332775</v>
+        <v>0.002522156190693666</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02884275243001436</v>
+        <v>0.02404497407303826</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4723,19 +4723,19 @@
         <v>12125</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5854</v>
+        <v>6608</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21383</v>
+        <v>21204</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03063832265669285</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0147928265035786</v>
+        <v>0.01669622745803257</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05403176800869248</v>
+        <v>0.05357798023093976</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -4744,19 +4744,19 @@
         <v>16517</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9885</v>
+        <v>9654</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27177</v>
+        <v>26645</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02026100403813178</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01212521346812493</v>
+        <v>0.01184171449605749</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03333675635419734</v>
+        <v>0.03268404337758661</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>415071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407365</v>
+        <v>409377</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>417563</v>
+        <v>418405</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9895297898464505</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9711572475699862</v>
+        <v>0.9759550259269621</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9954709953186672</v>
+        <v>0.9974778438093064</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>393</v>
@@ -4794,19 +4794,19 @@
         <v>383630</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>374372</v>
+        <v>374551</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>389901</v>
+        <v>389147</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9693616773433071</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9459682319913071</v>
+        <v>0.9464220197690604</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9852071734964214</v>
+        <v>0.9833037725419677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>782</v>
@@ -4815,19 +4815,19 @@
         <v>798701</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>788041</v>
+        <v>788573</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>805333</v>
+        <v>805564</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9797389959618682</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9666632436458027</v>
+        <v>0.9673159566224133</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9878747865318751</v>
+        <v>0.9881582855039425</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>6902</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2901</v>
+        <v>2946</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13059</v>
+        <v>13714</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0116884367643963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004912075200468641</v>
+        <v>0.004988884316399377</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02211595070445074</v>
+        <v>0.02322435710235458</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4940,19 +4940,19 @@
         <v>13644</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7844</v>
+        <v>7904</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21665</v>
+        <v>23223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02421194342134407</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01391973782879173</v>
+        <v>0.01402621819456218</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03844502481483571</v>
+        <v>0.04120834861902602</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -4961,19 +4961,19 @@
         <v>20546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13491</v>
+        <v>13438</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31351</v>
+        <v>31532</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01780394697747369</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01169032888480771</v>
+        <v>0.0116443002799292</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02716658353347369</v>
+        <v>0.02732305108263912</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>583594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>577437</v>
+        <v>576782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>587595</v>
+        <v>587550</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9883115632356037</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9778840492955494</v>
+        <v>0.9767756428976458</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9950879247995315</v>
+        <v>0.9950111156836007</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>565</v>
@@ -5011,19 +5011,19 @@
         <v>549900</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>541879</v>
+        <v>540321</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>555700</v>
+        <v>555640</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.975788056578656</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9615549751851642</v>
+        <v>0.9587916513809747</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9860802621712083</v>
+        <v>0.9859737818054382</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1125</v>
@@ -5032,19 +5032,19 @@
         <v>1133494</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1122689</v>
+        <v>1122508</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1140549</v>
+        <v>1140602</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9821960530225263</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9728334164665259</v>
+        <v>0.9726769489173603</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9883096711151923</v>
+        <v>0.9883556997200706</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>16452</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10053</v>
+        <v>10221</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26273</v>
+        <v>27020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02458879584831526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01502518164644961</v>
+        <v>0.01527626023805058</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03926606857627225</v>
+        <v>0.04038232028802757</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -5157,19 +5157,19 @@
         <v>44951</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34779</v>
+        <v>33169</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58761</v>
+        <v>58384</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0679652153715338</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05258537994755458</v>
+        <v>0.05015136108600715</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08884500067443792</v>
+        <v>0.08827489588882685</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -5178,19 +5178,19 @@
         <v>61404</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48703</v>
+        <v>47009</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77967</v>
+        <v>76834</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04615131815939719</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03660548446425393</v>
+        <v>0.0353325800166085</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05860081978156376</v>
+        <v>0.05774869048084948</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>652645</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>642824</v>
+        <v>642077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>659044</v>
+        <v>658876</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9754112041516847</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9607339314237275</v>
+        <v>0.9596176797119725</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9849748183535503</v>
+        <v>0.9847237397619495</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>618</v>
@@ -5228,19 +5228,19 @@
         <v>616435</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>602625</v>
+        <v>603002</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>626607</v>
+        <v>628217</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9320347846284662</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9111549993255621</v>
+        <v>0.9117251041111731</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9474146200524454</v>
+        <v>0.9498486389139928</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1240</v>
@@ -5249,19 +5249,19 @@
         <v>1269079</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1252516</v>
+        <v>1253649</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1281780</v>
+        <v>1283474</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9538486818406028</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9413991802184359</v>
+        <v>0.9422513095191505</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.963394515535746</v>
+        <v>0.9646674199833913</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>26074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17679</v>
+        <v>17738</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38538</v>
+        <v>37803</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04035848928725961</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02736450306885468</v>
+        <v>0.0274558127758801</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05965247215268565</v>
+        <v>0.05851447837333817</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -5374,19 +5374,19 @@
         <v>75994</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59711</v>
+        <v>61422</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>94698</v>
+        <v>94715</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1170806132686475</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0919932427985385</v>
+        <v>0.09463020032444361</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1458960406627733</v>
+        <v>0.145923020697019</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -5395,19 +5395,19 @@
         <v>102068</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84082</v>
+        <v>82835</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123404</v>
+        <v>125722</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07880925833922803</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06492172381605826</v>
+        <v>0.06395913465608646</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09528361737278626</v>
+        <v>0.0970733849842312</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>619974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>607510</v>
+        <v>608245</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>628369</v>
+        <v>628310</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9596415107127404</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9403475278473143</v>
+        <v>0.9414855216266618</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9726354969311451</v>
+        <v>0.9725441872241197</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>532</v>
@@ -5445,19 +5445,19 @@
         <v>573083</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>554379</v>
+        <v>554362</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>589366</v>
+        <v>587655</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8829193867313525</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8541039593372268</v>
+        <v>0.854076979302981</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9080067572014615</v>
+        <v>0.9053697996755563</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1089</v>
@@ -5466,19 +5466,19 @@
         <v>1193057</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1171721</v>
+        <v>1169403</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1211043</v>
+        <v>1212290</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.921190741660772</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9047163826272137</v>
+        <v>0.9029266150157687</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9350782761839417</v>
+        <v>0.9360408653439135</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>31679</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21137</v>
+        <v>21709</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45302</v>
+        <v>45631</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06628481022746631</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04422733930738379</v>
+        <v>0.04542420495707694</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09478960052918206</v>
+        <v>0.09547835790361148</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -5591,19 +5591,19 @@
         <v>88606</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71721</v>
+        <v>70450</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105522</v>
+        <v>105502</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1783360497902035</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1443510267357785</v>
+        <v>0.1417939336139183</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2123833385711256</v>
+        <v>0.2123411947214419</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -5612,19 +5612,19 @@
         <v>120285</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>99769</v>
+        <v>99070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144708</v>
+        <v>144931</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1233985066174547</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1023512020782197</v>
+        <v>0.1016340349193947</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1484542856832483</v>
+        <v>0.1486828602822706</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>446239</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>432616</v>
+        <v>432287</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>456781</v>
+        <v>456209</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9337151897725336</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9052103994708178</v>
+        <v>0.9045216420963875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9557726606926161</v>
+        <v>0.9545757950429229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>354</v>
@@ -5662,19 +5662,19 @@
         <v>408243</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>391327</v>
+        <v>391347</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>425128</v>
+        <v>426399</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8216639502097965</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7876166614288744</v>
+        <v>0.7876588052785578</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8556489732642215</v>
+        <v>0.8582060663860815</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>751</v>
@@ -5683,19 +5683,19 @@
         <v>854482</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>830059</v>
+        <v>829836</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>874998</v>
+        <v>875697</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8766014933825452</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8515457143167516</v>
+        <v>0.8513171397177294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8976487979217801</v>
+        <v>0.8983659650806054</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>9649</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4834</v>
+        <v>4764</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16653</v>
+        <v>16842</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02885931087202702</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01445890862545929</v>
+        <v>0.01424890268009654</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04980897218589374</v>
+        <v>0.05037601708333001</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -5808,19 +5808,19 @@
         <v>65247</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50133</v>
+        <v>51391</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80479</v>
+        <v>81366</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1727200476766706</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1327093799371929</v>
+        <v>0.1360397464056952</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2130421015955016</v>
+        <v>0.2153889736681987</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -5829,19 +5829,19 @@
         <v>74896</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>59656</v>
+        <v>58990</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>92380</v>
+        <v>93299</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1051768652124482</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08377637178081891</v>
+        <v>0.08284050723654388</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1297308927270389</v>
+        <v>0.1310212562398819</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>324681</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>317677</v>
+        <v>317488</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>329496</v>
+        <v>329566</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.971140689127973</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9501910278141061</v>
+        <v>0.9496239829166697</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9855410913745407</v>
+        <v>0.9857510973199035</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>293</v>
@@ -5879,19 +5879,19 @@
         <v>312515</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>297283</v>
+        <v>296396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>327629</v>
+        <v>326371</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8272799523233294</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7869578984044984</v>
+        <v>0.7846110263318012</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8672906200628071</v>
+        <v>0.8639602535943047</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>608</v>
@@ -5900,19 +5900,19 @@
         <v>637196</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>619712</v>
+        <v>618793</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>652436</v>
+        <v>653102</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8948231347875518</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8702691072729611</v>
+        <v>0.8689787437601181</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9162236282191811</v>
+        <v>0.9171594927634561</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>15423</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9389</v>
+        <v>9863</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23518</v>
+        <v>22752</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06001099590849027</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03653335184035159</v>
+        <v>0.03837846804627854</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09151110924647339</v>
+        <v>0.08852868538566754</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -6025,19 +6025,19 @@
         <v>60627</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45450</v>
+        <v>44785</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77841</v>
+        <v>77118</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1515031150670848</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1135763354261461</v>
+        <v>0.1119146361879196</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1945206313604221</v>
+        <v>0.1927145089408455</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -6046,19 +6046,19 @@
         <v>76050</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60381</v>
+        <v>59939</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96109</v>
+        <v>94640</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1157233334906727</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09188142235372206</v>
+        <v>0.09120843480701517</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1462474053387752</v>
+        <v>0.1440114060102267</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>241575</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233480</v>
+        <v>234246</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>247609</v>
+        <v>247135</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9399890040915098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9084888907535266</v>
+        <v>0.9114713146143325</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9634666481596484</v>
+        <v>0.9616215319537215</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>255</v>
@@ -6096,19 +6096,19 @@
         <v>339542</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>322328</v>
+        <v>323051</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>354719</v>
+        <v>355384</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8484968849329152</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8054793686395779</v>
+        <v>0.8072854910591546</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.886423664573854</v>
+        <v>0.8880853638120805</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>539</v>
@@ -6117,19 +6117,19 @@
         <v>581117</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>561058</v>
+        <v>562527</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>596786</v>
+        <v>597228</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8842766665093273</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8537525946612247</v>
+        <v>0.8559885939897732</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9081185776462777</v>
+        <v>0.9087915651929847</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>110570</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>92862</v>
+        <v>90693</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132371</v>
+        <v>132579</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03257459977889712</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02735774216036677</v>
+        <v>0.02671871535208471</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03899747741607205</v>
+        <v>0.03905860353258332</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>328</v>
@@ -6242,19 +6242,19 @@
         <v>361195</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>327389</v>
+        <v>327368</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>401245</v>
+        <v>405250</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1019018414644575</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09236435696909912</v>
+        <v>0.09235842159472096</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1132006890924918</v>
+        <v>0.1143308499696666</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>435</v>
@@ -6263,19 +6263,19 @@
         <v>471765</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>429308</v>
+        <v>427540</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>515892</v>
+        <v>516440</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06798851135334058</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06186985075601258</v>
+        <v>0.06161498336982358</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07434786254695809</v>
+        <v>0.07442686018912092</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3283780</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3261979</v>
+        <v>3261771</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3301488</v>
+        <v>3303657</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9674254002211029</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9610025225839278</v>
+        <v>0.9609413964674166</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9726422578396332</v>
+        <v>0.9732812846479153</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3010</v>
@@ -6313,19 +6313,19 @@
         <v>3183347</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3143297</v>
+        <v>3139292</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3217153</v>
+        <v>3217174</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8980981585355425</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8867993109075083</v>
+        <v>0.8856691500303335</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9076356430309009</v>
+        <v>0.907641578405279</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6134</v>
@@ -6334,19 +6334,19 @@
         <v>6467127</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6423000</v>
+        <v>6422452</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6509584</v>
+        <v>6511352</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9320114886466594</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9256521374530418</v>
+        <v>0.9255731398108791</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.938130149243987</v>
+        <v>0.9383850166301765</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>10308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3350</v>
+        <v>3845</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25703</v>
+        <v>25004</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02527694886790367</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008215351894008275</v>
+        <v>0.009427997142939019</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06303030423531145</v>
+        <v>0.06131646004544309</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -6702,19 +6702,19 @@
         <v>20141</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10230</v>
+        <v>10474</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35133</v>
+        <v>36754</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05556059101877262</v>
+        <v>0.05556059101877261</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02821972262413983</v>
+        <v>0.02889341992441547</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09691415108285664</v>
+        <v>0.1013860982498599</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -6723,19 +6723,19 @@
         <v>30449</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18132</v>
+        <v>18322</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48436</v>
+        <v>48625</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03952868342637732</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02353834026457461</v>
+        <v>0.02378589700359054</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0628794214972795</v>
+        <v>0.06312414513603029</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>397485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>382090</v>
+        <v>382789</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>404443</v>
+        <v>403948</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9747230511320965</v>
+        <v>0.9747230511320963</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9369696957646888</v>
+        <v>0.9386835399545563</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9917846481059917</v>
+        <v>0.9905720028570607</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>196</v>
@@ -6773,19 +6773,19 @@
         <v>342371</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>327379</v>
+        <v>325758</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>352282</v>
+        <v>352038</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9444394089812274</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9030858489171432</v>
+        <v>0.8986139017501403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9717802773758601</v>
+        <v>0.9711065800755846</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>363</v>
@@ -6794,19 +6794,19 @@
         <v>739856</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>721869</v>
+        <v>721680</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>752173</v>
+        <v>751983</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9604713165736228</v>
+        <v>0.9604713165736226</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9371205785027205</v>
+        <v>0.9368758548639697</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9764616597354253</v>
+        <v>0.9762141029964094</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>14565</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6968</v>
+        <v>7266</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25632</v>
+        <v>25604</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03054103471363148</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01461222525623134</v>
+        <v>0.0152353599189674</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05374772136513736</v>
+        <v>0.0536894168674663</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -6919,19 +6919,19 @@
         <v>35832</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24498</v>
+        <v>24398</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49962</v>
+        <v>50223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07141628878535733</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04882582678001871</v>
+        <v>0.04862797418895943</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09957948604941518</v>
+        <v>0.1000983982507351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -6940,19 +6940,19 @@
         <v>50397</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35646</v>
+        <v>35888</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67904</v>
+        <v>67522</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05149747094034494</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.036424916297758</v>
+        <v>0.03667227594129745</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06938702492319199</v>
+        <v>0.0689970752635904</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>462325</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>451258</v>
+        <v>451286</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>469922</v>
+        <v>469624</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9694589652863685</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9462522786348626</v>
+        <v>0.9463105831325337</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9853877747437689</v>
+        <v>0.9847646400810326</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>430</v>
@@ -6990,19 +6990,19 @@
         <v>465901</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>451771</v>
+        <v>451510</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>477235</v>
+        <v>477335</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9285837112146426</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.900420513950585</v>
+        <v>0.8999016017492649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9511741732199813</v>
+        <v>0.9513720258110407</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>722</v>
@@ -7011,19 +7011,19 @@
         <v>928226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>910719</v>
+        <v>911101</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>942977</v>
+        <v>942735</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9485025290596552</v>
+        <v>0.948502529059655</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.930612975076808</v>
+        <v>0.9310029247364096</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.963575083702242</v>
+        <v>0.9633277240587026</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>33653</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22211</v>
+        <v>23557</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47470</v>
+        <v>46867</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05420614689657444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03577657433643809</v>
+        <v>0.03794389044345265</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07646109546604864</v>
+        <v>0.07549040411812999</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -7136,19 +7136,19 @@
         <v>49394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38600</v>
+        <v>38454</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62725</v>
+        <v>61294</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07926027417997561</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06193895736550518</v>
+        <v>0.06170538968013703</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1006511593295229</v>
+        <v>0.0983548780237536</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -7157,19 +7157,19 @@
         <v>83048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67133</v>
+        <v>67366</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100620</v>
+        <v>101002</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06675693290734025</v>
+        <v>0.06675693290734024</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05396395761415547</v>
+        <v>0.05415183826903108</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0808824667763591</v>
+        <v>0.08118975653562087</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>587184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>573367</v>
+        <v>573970</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>598626</v>
+        <v>597280</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9457938531034256</v>
+        <v>0.9457938531034257</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9235389045339515</v>
+        <v>0.9245095958818694</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.964223425663562</v>
+        <v>0.9620561095565474</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>780</v>
@@ -7207,19 +7207,19 @@
         <v>573799</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>560468</v>
+        <v>561899</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>584593</v>
+        <v>584739</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9207397258200245</v>
+        <v>0.9207397258200243</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8993488406704774</v>
+        <v>0.9016451219762464</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9380610426344951</v>
+        <v>0.9382946103198631</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1297</v>
@@ -7228,19 +7228,19 @@
         <v>1160981</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1143409</v>
+        <v>1143027</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1176896</v>
+        <v>1176663</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9332430670926598</v>
+        <v>0.9332430670926596</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9191175332236408</v>
+        <v>0.918810243464379</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9460360423858445</v>
+        <v>0.9458481617309686</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>54405</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41001</v>
+        <v>41430</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71468</v>
+        <v>72127</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07765256422980259</v>
+        <v>0.07765256422980257</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05852103548034832</v>
+        <v>0.0591336507421941</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.102007261623992</v>
+        <v>0.1029476898736722</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -7353,19 +7353,19 @@
         <v>98542</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84659</v>
+        <v>84175</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>113603</v>
+        <v>114277</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1337277405627094</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1148881127633506</v>
+        <v>0.1142302874680692</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.154166513126729</v>
+        <v>0.1550807923594905</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>199</v>
@@ -7374,19 +7374,19 @@
         <v>152947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132686</v>
+        <v>132160</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174381</v>
+        <v>175155</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1063975602804089</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09230327664433527</v>
+        <v>0.09193685504495533</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1213085195795594</v>
+        <v>0.1218468177536453</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>646212</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>629149</v>
+        <v>628490</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>659616</v>
+        <v>659187</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9223474357701975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8979927383760079</v>
+        <v>0.8970523101263278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9414789645196517</v>
+        <v>0.940866349257806</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>992</v>
@@ -7424,19 +7424,19 @@
         <v>638344</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>623283</v>
+        <v>622609</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>652227</v>
+        <v>652711</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8662722594372905</v>
+        <v>0.8662722594372908</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.845833486873271</v>
+        <v>0.8449192076405095</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8851118872366494</v>
+        <v>0.8857697125319312</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1607</v>
@@ -7445,19 +7445,19 @@
         <v>1284557</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1263123</v>
+        <v>1262349</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1304818</v>
+        <v>1305344</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8936024397195912</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.878691480420441</v>
+        <v>0.8781531822463545</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9076967233556649</v>
+        <v>0.9080631449550447</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>55744</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42239</v>
+        <v>43201</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70166</v>
+        <v>70629</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09148093170051137</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06931897815047175</v>
+        <v>0.07089701023530318</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1151504709415052</v>
+        <v>0.1159095019035892</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>172</v>
@@ -7570,19 +7570,19 @@
         <v>107090</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>92782</v>
+        <v>93162</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>122770</v>
+        <v>121742</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1758879175368908</v>
+        <v>0.1758879175368909</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.152387569367002</v>
+        <v>0.1530119097212607</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2016401902704111</v>
+        <v>0.1999521099949233</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>232</v>
@@ -7591,19 +7591,19 @@
         <v>162834</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>143642</v>
+        <v>141845</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>184832</v>
+        <v>184241</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1336674128649573</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1179134488187241</v>
+        <v>0.1164376666478005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1517256350035407</v>
+        <v>0.1512400880521767</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>553602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>539180</v>
+        <v>538717</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>567107</v>
+        <v>566145</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9085190682994887</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8848495290584947</v>
+        <v>0.8840904980964107</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9306810218495282</v>
+        <v>0.929102989764697</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>830</v>
@@ -7641,19 +7641,19 @@
         <v>501765</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>486085</v>
+        <v>487113</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>516073</v>
+        <v>515693</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8241120824631091</v>
+        <v>0.8241120824631092</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.798359809729589</v>
+        <v>0.8000478900050768</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8476124306329981</v>
+        <v>0.8469880902787392</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1433</v>
@@ -7662,19 +7662,19 @@
         <v>1055368</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1033370</v>
+        <v>1033961</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1074560</v>
+        <v>1076357</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8663325871350427</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8482743649964594</v>
+        <v>0.8487599119478227</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8820865511812761</v>
+        <v>0.8835623333521987</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>18351</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12926</v>
+        <v>12493</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26714</v>
+        <v>25921</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04508065369730196</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03175245813970656</v>
+        <v>0.0306899121061618</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06562365034586669</v>
+        <v>0.06367556598791466</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -7787,19 +7787,19 @@
         <v>69348</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58890</v>
+        <v>58373</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81990</v>
+        <v>80669</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1579076747335252</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1340948884254764</v>
+        <v>0.1329176917160477</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1866937110734588</v>
+        <v>0.1836870413311038</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>150</v>
@@ -7808,19 +7808,19 @@
         <v>87699</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74455</v>
+        <v>74744</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102236</v>
+        <v>103097</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1036331520886989</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08798308149776253</v>
+        <v>0.0883246098752008</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1208106328838814</v>
+        <v>0.121828623498904</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>388729</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>380366</v>
+        <v>381159</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>394154</v>
+        <v>394587</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9549193463026979</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9343763496541332</v>
+        <v>0.9363244340120848</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9682475418602933</v>
+        <v>0.9693100878938379</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>704</v>
@@ -7858,19 +7858,19 @@
         <v>369818</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>357176</v>
+        <v>358497</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>380276</v>
+        <v>380793</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8420923252664748</v>
+        <v>0.8420923252664749</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8133062889265413</v>
+        <v>0.8163129586688965</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8659051115745237</v>
+        <v>0.8670823082839523</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1247</v>
@@ -7879,19 +7879,19 @@
         <v>758547</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>744010</v>
+        <v>743149</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>771791</v>
+        <v>771502</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8963668479113009</v>
+        <v>0.8963668479113011</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8791893671161186</v>
+        <v>0.8781713765010959</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9120169185022374</v>
+        <v>0.9116753901247991</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>28022</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20764</v>
+        <v>20417</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38035</v>
+        <v>36648</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09033425123914524</v>
+        <v>0.09033425123914522</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06693753518343758</v>
+        <v>0.06581936893763259</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.122614530243629</v>
+        <v>0.1181433361337729</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>138</v>
@@ -8004,19 +8004,19 @@
         <v>76283</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>65077</v>
+        <v>64524</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89805</v>
+        <v>88498</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1641874702719569</v>
+        <v>0.1641874702719568</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1400690868859188</v>
+        <v>0.1388782022873485</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1932912472808889</v>
+        <v>0.1904782177356076</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>180</v>
@@ -8025,19 +8025,19 @@
         <v>104304</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91075</v>
+        <v>90879</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>119282</v>
+        <v>121369</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.134619929290529</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1175459976896343</v>
+        <v>0.1172928926277974</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1539507445789125</v>
+        <v>0.1566441386796937</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>282176</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>272163</v>
+        <v>273550</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>289434</v>
+        <v>289781</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9096657487608547</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.877385469756371</v>
+        <v>0.8818566638662271</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9330624648165626</v>
+        <v>0.9341806310623674</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>743</v>
@@ -8075,19 +8075,19 @@
         <v>388326</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>374804</v>
+        <v>376111</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>399532</v>
+        <v>400085</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8358125297280432</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8067087527191112</v>
+        <v>0.8095217822643924</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8599309131140813</v>
+        <v>0.8611217977126516</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1159</v>
@@ -8096,19 +8096,19 @@
         <v>670503</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>655525</v>
+        <v>653438</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>683732</v>
+        <v>683928</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.865380070709471</v>
+        <v>0.8653800707094709</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8460492554210873</v>
+        <v>0.843355861320306</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8824540023103655</v>
+        <v>0.8827071073722023</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>215047</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>186348</v>
+        <v>186677</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>245351</v>
+        <v>246530</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06087217903359984</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05274862338834924</v>
+        <v>0.05284156113167961</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06945010460675888</v>
+        <v>0.06978388707708502</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>692</v>
@@ -8221,19 +8221,19 @@
         <v>456631</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>422924</v>
+        <v>421601</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>489714</v>
+        <v>493596</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1221933134361761</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1131735126699529</v>
+        <v>0.1128193419395744</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1310463898084182</v>
+        <v>0.132085015254281</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>915</v>
@@ -8242,19 +8242,19 @@
         <v>671678</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>627111</v>
+        <v>624164</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>718365</v>
+        <v>715717</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0923939422401306</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08626347430456352</v>
+        <v>0.08585809493221654</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09881609770852656</v>
+        <v>0.09845189202698827</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3317715</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3287411</v>
+        <v>3286232</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3346414</v>
+        <v>3346085</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9391278209664004</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9305498953932411</v>
+        <v>0.930216112922915</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9472513766116507</v>
+        <v>0.9471584388683201</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4675</v>
@@ -8292,19 +8292,19 @@
         <v>3280323</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3247240</v>
+        <v>3243358</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3314030</v>
+        <v>3315353</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8778066865638241</v>
+        <v>0.8778066865638238</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8689536101915818</v>
+        <v>0.8679149847457189</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.886826487330047</v>
+        <v>0.8871806580604257</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7828</v>
@@ -8313,19 +8313,19 @@
         <v>6598038</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6551351</v>
+        <v>6553999</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6642605</v>
+        <v>6645552</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9076060577598695</v>
+        <v>0.9076060577598692</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9011839022914735</v>
+        <v>0.9015481079730119</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9137365256954366</v>
+        <v>0.9141419050677836</v>
       </c>
     </row>
     <row r="27">
